--- a/Suspected.xlsx
+++ b/Suspected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\אנגלית\suspect and diagnostied\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328C232C-5CAC-42DE-A37E-E0E2F40F0F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D1E6B7-1198-43BE-88E8-083298D9EAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2798,11 +2798,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3126,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3136,37 +3133,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>709</v>
       </c>
     </row>
@@ -3192,12 +3189,12 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2">
-        <v>110</v>
-      </c>
       <c r="K2">
         <v>454</v>
       </c>
+      <c r="L2">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3221,12 +3218,12 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>298</v>
-      </c>
       <c r="K3">
         <v>1231</v>
       </c>
+      <c r="L3">
+        <v>298</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3247,11 +3244,11 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="J4">
-        <v>209</v>
-      </c>
       <c r="K4">
         <v>824</v>
+      </c>
+      <c r="L4">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -3276,11 +3273,11 @@
       <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J5">
-        <v>315</v>
-      </c>
       <c r="K5">
         <v>1254</v>
+      </c>
+      <c r="L5">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -3302,11 +3299,11 @@
       <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6">
-        <v>96</v>
-      </c>
       <c r="K6">
         <v>454</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -3331,11 +3328,11 @@
       <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="J7">
-        <v>118</v>
-      </c>
       <c r="K7">
         <v>465</v>
+      </c>
+      <c r="L7">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -3357,11 +3354,11 @@
       <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="J8">
-        <v>166</v>
-      </c>
       <c r="K8">
         <v>737</v>
+      </c>
+      <c r="L8">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -3386,11 +3383,11 @@
       <c r="I9" t="s">
         <v>37</v>
       </c>
-      <c r="J9">
-        <v>147</v>
-      </c>
       <c r="K9">
         <v>609</v>
+      </c>
+      <c r="L9">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -3415,24 +3412,24 @@
       <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="J10">
-        <v>113</v>
-      </c>
       <c r="K10">
         <v>472</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="L10">
+        <v>113</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3456,28 +3453,28 @@
       <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="J11">
-        <v>75</v>
-      </c>
       <c r="K11">
         <v>308</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="6" t="s">
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>250</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -3501,43 +3498,43 @@
       <c r="I12" t="s">
         <v>49</v>
       </c>
-      <c r="J12">
-        <v>120</v>
-      </c>
       <c r="K12">
         <v>453</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6" t="s">
+      <c r="L12">
+        <v>120</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>15</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="7" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="V12" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="W12" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" s="4" t="s">
         <v>699</v>
       </c>
     </row>
@@ -3563,39 +3560,39 @@
       <c r="I13" t="s">
         <v>52</v>
       </c>
-      <c r="J13">
-        <v>136</v>
-      </c>
       <c r="K13">
         <v>632</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="L13">
+        <v>136</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="R13">
         <v>86</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>79</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>73</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>39</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>8</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>10</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>5</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>15</v>
       </c>
     </row>
@@ -3621,19 +3618,18 @@
       <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="J14">
-        <v>161</v>
-      </c>
       <c r="K14">
         <v>667</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="6" t="s">
+      <c r="L14">
+        <v>161</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>695</v>
       </c>
     </row>
@@ -3659,20 +3655,20 @@
       <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="J15">
-        <v>301</v>
-      </c>
       <c r="K15">
         <v>1265</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="6" t="s">
+      <c r="L15">
+        <v>301</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="O15" s="4">
-        <v>215211</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="O15" s="3">
+        <v>38346</v>
+      </c>
+      <c r="P15" s="3">
         <v>50863</v>
       </c>
     </row>
@@ -3698,20 +3694,20 @@
       <c r="I16" t="s">
         <v>63</v>
       </c>
-      <c r="J16">
-        <v>70</v>
-      </c>
       <c r="K16">
         <v>322</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="6" t="s">
+      <c r="L16">
+        <v>70</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="O16" s="4">
-        <v>860.84400000000005</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="O16" s="3">
+        <v>153.38</v>
+      </c>
+      <c r="P16" s="3">
         <v>203.452</v>
       </c>
     </row>
@@ -3737,20 +3733,20 @@
       <c r="I17" t="s">
         <v>66</v>
       </c>
-      <c r="J17">
-        <v>71</v>
-      </c>
       <c r="K17">
         <v>287</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="6" t="s">
+      <c r="L17">
+        <v>71</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="O17" s="4">
-        <v>582.5</v>
-      </c>
-      <c r="P17" s="4">
+      <c r="O17" s="3">
+        <v>125.5</v>
+      </c>
+      <c r="P17" s="3">
         <v>136</v>
       </c>
     </row>
@@ -3779,20 +3775,20 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18">
-        <v>250</v>
-      </c>
       <c r="K18">
         <v>1043</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="6" t="s">
+      <c r="L18">
+        <v>250</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="O18" s="4">
-        <v>707121.83500401594</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="O18" s="3">
+        <v>9981.0400000000009</v>
+      </c>
+      <c r="P18" s="3">
         <v>40051.051903614403</v>
       </c>
     </row>
@@ -3818,20 +3814,20 @@
       <c r="I19" t="s">
         <v>75</v>
       </c>
-      <c r="J19">
-        <v>160</v>
-      </c>
       <c r="K19">
         <v>662</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="6" t="s">
+      <c r="L19">
+        <v>160</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="O19" s="4">
-        <v>840.90536625949505</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="O19" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="P19" s="3">
         <v>200.127589061614</v>
       </c>
     </row>
@@ -3857,20 +3853,20 @@
       <c r="I20" t="s">
         <v>78</v>
       </c>
-      <c r="J20">
-        <v>491</v>
-      </c>
       <c r="K20">
         <v>2073</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="6" t="s">
+      <c r="L20">
+        <v>491</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="O20" s="4">
-        <v>5062</v>
-      </c>
-      <c r="P20" s="4">
+      <c r="O20" s="3">
+        <v>518</v>
+      </c>
+      <c r="P20" s="3">
         <v>1190</v>
       </c>
     </row>
@@ -3896,20 +3892,20 @@
       <c r="I21" t="s">
         <v>78</v>
       </c>
-      <c r="J21">
-        <v>103</v>
-      </c>
       <c r="K21">
         <v>412</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="6" t="s">
+      <c r="L21">
+        <v>103</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="O21" s="4">
-        <v>55</v>
-      </c>
-      <c r="P21" s="4">
+      <c r="O21" s="3">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3">
         <v>10</v>
       </c>
     </row>
@@ -3929,16 +3925,16 @@
       <c r="I22" t="s">
         <v>82</v>
       </c>
-      <c r="J22">
-        <v>124</v>
-      </c>
       <c r="K22">
         <v>565</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="L22">
+        <v>124</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -3965,11 +3961,11 @@
       <c r="I23" t="s">
         <v>86</v>
       </c>
-      <c r="J23">
-        <v>57</v>
-      </c>
       <c r="K23">
         <v>233</v>
+      </c>
+      <c r="L23">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -3988,11 +3984,11 @@
       <c r="I24" t="s">
         <v>88</v>
       </c>
-      <c r="J24">
-        <v>116</v>
-      </c>
       <c r="K24">
         <v>508</v>
+      </c>
+      <c r="L24">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4017,11 +4013,11 @@
       <c r="I25" t="s">
         <v>92</v>
       </c>
-      <c r="J25">
-        <v>126</v>
-      </c>
       <c r="K25">
         <v>530</v>
+      </c>
+      <c r="L25">
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4046,11 +4042,11 @@
       <c r="I26" t="s">
         <v>95</v>
       </c>
-      <c r="J26">
-        <v>62</v>
-      </c>
       <c r="K26">
         <v>258</v>
+      </c>
+      <c r="L26">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4075,11 +4071,11 @@
       <c r="I27" t="s">
         <v>98</v>
       </c>
-      <c r="J27">
-        <v>188</v>
-      </c>
       <c r="K27">
         <v>753</v>
+      </c>
+      <c r="L27">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4101,11 +4097,11 @@
       <c r="I28" t="s">
         <v>100</v>
       </c>
-      <c r="J28">
-        <v>117</v>
-      </c>
       <c r="K28">
         <v>537</v>
+      </c>
+      <c r="L28">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4133,11 +4129,11 @@
       <c r="I29" t="s">
         <v>103</v>
       </c>
-      <c r="J29">
-        <v>138</v>
-      </c>
       <c r="K29">
         <v>575</v>
+      </c>
+      <c r="L29">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -4162,11 +4158,11 @@
       <c r="I30" t="s">
         <v>106</v>
       </c>
-      <c r="J30">
-        <v>57</v>
-      </c>
       <c r="K30">
         <v>222</v>
+      </c>
+      <c r="L30">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -4191,11 +4187,11 @@
       <c r="I31" t="s">
         <v>109</v>
       </c>
-      <c r="J31">
-        <v>172</v>
-      </c>
       <c r="K31">
         <v>754</v>
+      </c>
+      <c r="L31">
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -4226,14 +4222,14 @@
       <c r="I32" t="s">
         <v>115</v>
       </c>
-      <c r="J32">
-        <v>53</v>
-      </c>
       <c r="K32">
         <v>211</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4258,14 +4254,14 @@
       <c r="I33" t="s">
         <v>119</v>
       </c>
-      <c r="J33">
-        <v>38</v>
-      </c>
       <c r="K33">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4284,14 +4280,14 @@
       <c r="I34" t="s">
         <v>121</v>
       </c>
-      <c r="J34">
-        <v>106</v>
-      </c>
       <c r="K34">
         <v>403</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4316,14 +4312,14 @@
       <c r="I35" t="s">
         <v>124</v>
       </c>
-      <c r="J35">
-        <v>406</v>
-      </c>
       <c r="K35">
         <v>1568</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4345,14 +4341,14 @@
       <c r="I36" t="s">
         <v>127</v>
       </c>
-      <c r="J36">
-        <v>381</v>
-      </c>
       <c r="K36">
         <v>1760</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4371,14 +4367,14 @@
       <c r="I37" t="s">
         <v>130</v>
       </c>
-      <c r="J37">
-        <v>103</v>
-      </c>
       <c r="K37">
         <v>368</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4397,14 +4393,14 @@
       <c r="I38" t="s">
         <v>130</v>
       </c>
-      <c r="J38">
-        <v>74</v>
-      </c>
       <c r="K38">
         <v>287</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4423,14 +4419,14 @@
       <c r="I39" t="s">
         <v>135</v>
       </c>
-      <c r="J39">
-        <v>166</v>
-      </c>
       <c r="K39">
         <v>684</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4449,14 +4445,14 @@
       <c r="I40" t="s">
         <v>137</v>
       </c>
-      <c r="J40">
-        <v>116</v>
-      </c>
       <c r="K40">
         <v>514</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4475,14 +4471,14 @@
       <c r="I41" t="s">
         <v>140</v>
       </c>
-      <c r="J41">
-        <v>115</v>
-      </c>
       <c r="K41">
         <v>515</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4501,14 +4497,14 @@
       <c r="I42" t="s">
         <v>142</v>
       </c>
-      <c r="J42">
-        <v>110</v>
-      </c>
       <c r="K42">
         <v>469</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4527,14 +4523,14 @@
       <c r="I43" t="s">
         <v>145</v>
       </c>
-      <c r="J43">
-        <v>87</v>
-      </c>
       <c r="K43">
         <v>447</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4553,14 +4549,14 @@
       <c r="I44" t="s">
         <v>149</v>
       </c>
-      <c r="J44">
-        <v>198</v>
-      </c>
       <c r="K44">
         <v>838</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4579,14 +4575,14 @@
       <c r="I45" t="s">
         <v>152</v>
       </c>
-      <c r="J45">
-        <v>54</v>
-      </c>
       <c r="K45">
         <v>212</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4605,14 +4601,14 @@
       <c r="I46" t="s">
         <v>63</v>
       </c>
-      <c r="J46">
-        <v>22</v>
-      </c>
       <c r="K46">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4634,14 +4630,14 @@
       <c r="I47" t="s">
         <v>159</v>
       </c>
-      <c r="J47">
-        <v>59</v>
-      </c>
       <c r="K47">
         <v>265</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4660,14 +4656,14 @@
       <c r="I48" t="s">
         <v>162</v>
       </c>
-      <c r="J48">
-        <v>95</v>
-      </c>
       <c r="K48">
         <v>447</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4689,14 +4685,14 @@
       <c r="I49" t="s">
         <v>165</v>
       </c>
-      <c r="J49">
-        <v>46</v>
-      </c>
       <c r="K49">
         <v>187</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4718,14 +4714,14 @@
       <c r="I50" t="s">
         <v>168</v>
       </c>
-      <c r="J50">
-        <v>124</v>
-      </c>
       <c r="K50">
         <v>515</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4747,14 +4743,14 @@
       <c r="I51" t="s">
         <v>171</v>
       </c>
-      <c r="J51">
-        <v>10</v>
-      </c>
       <c r="K51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4776,14 +4772,14 @@
       <c r="I52" t="s">
         <v>174</v>
       </c>
-      <c r="J52">
-        <v>197</v>
-      </c>
       <c r="K52">
         <v>810</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4802,14 +4798,14 @@
       <c r="I53" t="s">
         <v>176</v>
       </c>
-      <c r="J53">
-        <v>91</v>
-      </c>
       <c r="K53">
         <v>435</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4831,14 +4827,14 @@
       <c r="I54" t="s">
         <v>179</v>
       </c>
-      <c r="J54">
-        <v>184</v>
-      </c>
       <c r="K54">
         <v>809</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4860,14 +4856,14 @@
       <c r="I55" t="s">
         <v>179</v>
       </c>
-      <c r="J55">
-        <v>250</v>
-      </c>
       <c r="K55">
         <v>977</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4889,14 +4885,14 @@
       <c r="I56" t="s">
         <v>179</v>
       </c>
-      <c r="J56">
-        <v>329</v>
-      </c>
       <c r="K56">
         <v>1329</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4918,14 +4914,14 @@
       <c r="I57" t="s">
         <v>186</v>
       </c>
-      <c r="J57">
-        <v>126</v>
-      </c>
       <c r="K57">
         <v>552</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4947,14 +4943,14 @@
       <c r="I58" t="s">
         <v>189</v>
       </c>
-      <c r="J58">
-        <v>145</v>
-      </c>
       <c r="K58">
         <v>627</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4973,14 +4969,14 @@
       <c r="I59" t="s">
         <v>192</v>
       </c>
-      <c r="J59">
-        <v>147</v>
-      </c>
       <c r="K59">
         <v>660</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5002,14 +4998,14 @@
       <c r="I60" t="s">
         <v>195</v>
       </c>
-      <c r="J60">
-        <v>64</v>
-      </c>
       <c r="K60">
         <v>297</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5028,14 +5024,14 @@
       <c r="H61" t="s">
         <v>158</v>
       </c>
-      <c r="J61">
-        <v>120</v>
-      </c>
       <c r="K61">
         <v>431</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5057,14 +5053,14 @@
       <c r="I62" t="s">
         <v>195</v>
       </c>
-      <c r="J62">
-        <v>265</v>
-      </c>
       <c r="K62">
         <v>1115</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5086,14 +5082,14 @@
       <c r="I63" t="s">
         <v>202</v>
       </c>
-      <c r="J63">
-        <v>77</v>
-      </c>
       <c r="K63">
         <v>394</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5115,14 +5111,14 @@
       <c r="I64" t="s">
         <v>205</v>
       </c>
-      <c r="J64">
-        <v>67</v>
-      </c>
       <c r="K64">
         <v>286</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5144,14 +5140,14 @@
       <c r="I65" t="s">
         <v>208</v>
       </c>
-      <c r="J65">
-        <v>87</v>
-      </c>
       <c r="K65">
         <v>359</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5170,14 +5166,14 @@
       <c r="I66" t="s">
         <v>211</v>
       </c>
-      <c r="J66">
-        <v>123</v>
-      </c>
       <c r="K66">
         <v>543</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5199,14 +5195,14 @@
       <c r="I67" t="s">
         <v>214</v>
       </c>
-      <c r="J67">
-        <v>290</v>
-      </c>
       <c r="K67">
         <v>1350</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5225,14 +5221,14 @@
       <c r="I68" t="s">
         <v>216</v>
       </c>
-      <c r="J68">
-        <v>265</v>
-      </c>
       <c r="K68">
         <v>1192</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5257,14 +5253,14 @@
       <c r="I69" t="s">
         <v>218</v>
       </c>
-      <c r="J69">
-        <v>330</v>
-      </c>
       <c r="K69">
         <v>1380</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5283,14 +5279,14 @@
       <c r="I70" t="s">
         <v>220</v>
       </c>
-      <c r="J70">
-        <v>51</v>
-      </c>
       <c r="K70">
         <v>214</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5309,14 +5305,14 @@
       <c r="I71" t="s">
         <v>222</v>
       </c>
-      <c r="J71">
-        <v>116</v>
-      </c>
       <c r="K71">
         <v>481</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5335,14 +5331,14 @@
       <c r="I72" t="s">
         <v>224</v>
       </c>
-      <c r="J72">
-        <v>136</v>
-      </c>
       <c r="K72">
         <v>573</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5361,14 +5357,14 @@
       <c r="I73" t="s">
         <v>226</v>
       </c>
-      <c r="J73">
-        <v>78</v>
-      </c>
       <c r="K73">
         <v>331</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5387,14 +5383,14 @@
       <c r="I74" t="s">
         <v>228</v>
       </c>
-      <c r="J74">
-        <v>104</v>
-      </c>
       <c r="K74">
         <v>449</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5413,14 +5409,14 @@
       <c r="I75" t="s">
         <v>231</v>
       </c>
-      <c r="J75">
-        <v>33</v>
-      </c>
       <c r="K75">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5442,14 +5438,14 @@
       <c r="I76" t="s">
         <v>234</v>
       </c>
-      <c r="J76">
-        <v>67</v>
-      </c>
       <c r="K76">
         <v>291</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5468,14 +5464,14 @@
       <c r="I77" t="s">
         <v>237</v>
       </c>
-      <c r="J77">
-        <v>125</v>
-      </c>
       <c r="K77">
         <v>592</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5494,14 +5490,14 @@
       <c r="I78" t="s">
         <v>239</v>
       </c>
-      <c r="J78">
-        <v>339</v>
-      </c>
       <c r="K78">
         <v>1494</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5523,14 +5519,14 @@
       <c r="I79" t="s">
         <v>242</v>
       </c>
-      <c r="J79">
-        <v>110</v>
-      </c>
       <c r="K79">
         <v>454</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5552,14 +5548,14 @@
       <c r="I80" t="s">
         <v>245</v>
       </c>
-      <c r="J80">
-        <v>81</v>
-      </c>
       <c r="K80">
         <v>359</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5581,14 +5577,14 @@
       <c r="I81" t="s">
         <v>248</v>
       </c>
-      <c r="J81">
-        <v>190</v>
-      </c>
       <c r="K81">
         <v>778</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5610,14 +5606,14 @@
       <c r="I82" t="s">
         <v>248</v>
       </c>
-      <c r="J82">
-        <v>62</v>
-      </c>
       <c r="K82">
         <v>255</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5636,14 +5632,14 @@
       <c r="I83" t="s">
         <v>248</v>
       </c>
-      <c r="J83">
-        <v>62</v>
-      </c>
       <c r="K83">
         <v>263</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5662,14 +5658,14 @@
       <c r="I84" t="s">
         <v>248</v>
       </c>
-      <c r="J84">
-        <v>200</v>
-      </c>
       <c r="K84">
         <v>854</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5688,14 +5684,14 @@
       <c r="I85" t="s">
         <v>257</v>
       </c>
-      <c r="J85">
-        <v>116</v>
-      </c>
       <c r="K85">
         <v>543</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5714,14 +5710,14 @@
       <c r="I86" t="s">
         <v>260</v>
       </c>
-      <c r="J86">
-        <v>157</v>
-      </c>
       <c r="K86">
         <v>659</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5740,14 +5736,14 @@
       <c r="I87" t="s">
         <v>263</v>
       </c>
-      <c r="J87">
-        <v>83</v>
-      </c>
       <c r="K87">
         <v>332</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5766,14 +5762,14 @@
       <c r="I88" t="s">
         <v>265</v>
       </c>
-      <c r="J88">
-        <v>105</v>
-      </c>
       <c r="K88">
         <v>437</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5792,14 +5788,14 @@
       <c r="I89" t="s">
         <v>268</v>
       </c>
-      <c r="J89">
-        <v>224</v>
-      </c>
       <c r="K89">
         <v>1022</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5818,14 +5814,14 @@
       <c r="I90" t="s">
         <v>271</v>
       </c>
-      <c r="J90">
-        <v>250</v>
-      </c>
       <c r="K90">
         <v>1120</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5844,14 +5840,14 @@
       <c r="I91" t="s">
         <v>273</v>
       </c>
-      <c r="J91">
-        <v>143</v>
-      </c>
       <c r="K91">
         <v>624</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5870,14 +5866,14 @@
       <c r="I92" t="s">
         <v>276</v>
       </c>
-      <c r="J92">
-        <v>290</v>
-      </c>
       <c r="K92">
         <v>1147</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5896,14 +5892,14 @@
       <c r="I93" t="s">
         <v>279</v>
       </c>
-      <c r="J93">
-        <v>42</v>
-      </c>
       <c r="K93">
         <v>189</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5922,14 +5918,14 @@
       <c r="I94" t="s">
         <v>283</v>
       </c>
-      <c r="J94">
-        <v>201</v>
-      </c>
       <c r="K94">
         <v>871</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5948,14 +5944,14 @@
       <c r="I95" t="s">
         <v>286</v>
       </c>
-      <c r="J95">
-        <v>129</v>
-      </c>
       <c r="K95">
         <v>567</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5968,14 +5964,14 @@
       <c r="I96" t="s">
         <v>286</v>
       </c>
-      <c r="J96">
-        <v>40</v>
-      </c>
       <c r="K96">
         <v>166</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5994,14 +5990,14 @@
       <c r="I97" t="s">
         <v>290</v>
       </c>
-      <c r="J97">
-        <v>35</v>
-      </c>
       <c r="K97">
         <v>150</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6020,14 +6016,14 @@
       <c r="I98" t="s">
         <v>293</v>
       </c>
-      <c r="J98">
-        <v>308</v>
-      </c>
       <c r="K98">
         <v>1288</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6037,14 +6033,14 @@
       <c r="E99">
         <v>3</v>
       </c>
-      <c r="J99">
-        <v>145</v>
-      </c>
       <c r="K99">
         <v>737</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6063,14 +6059,14 @@
       <c r="I100" t="s">
         <v>297</v>
       </c>
-      <c r="J100">
-        <v>62</v>
-      </c>
       <c r="K100">
         <v>273</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6089,14 +6085,14 @@
       <c r="I101" t="s">
         <v>300</v>
       </c>
-      <c r="J101">
-        <v>151</v>
-      </c>
       <c r="K101">
         <v>705</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6115,14 +6111,14 @@
       <c r="I102" t="s">
         <v>303</v>
       </c>
-      <c r="J102">
-        <v>54</v>
-      </c>
       <c r="K102">
         <v>242</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6141,14 +6137,14 @@
       <c r="I103" t="s">
         <v>306</v>
       </c>
-      <c r="J103">
-        <v>233</v>
-      </c>
       <c r="K103">
         <v>988</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6167,14 +6163,14 @@
       <c r="I104" t="s">
         <v>309</v>
       </c>
-      <c r="J104">
-        <v>121</v>
-      </c>
       <c r="K104">
         <v>489</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6193,14 +6189,14 @@
       <c r="I105" t="s">
         <v>312</v>
       </c>
-      <c r="J105">
-        <v>275</v>
-      </c>
       <c r="K105">
         <v>1245</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6219,14 +6215,14 @@
       <c r="I106" t="s">
         <v>315</v>
       </c>
-      <c r="J106">
-        <v>162</v>
-      </c>
       <c r="K106">
         <v>689</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6245,14 +6241,14 @@
       <c r="I107" t="s">
         <v>145</v>
       </c>
-      <c r="J107">
-        <v>87</v>
-      </c>
       <c r="K107">
         <v>447</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6271,14 +6267,14 @@
       <c r="I108" t="s">
         <v>319</v>
       </c>
-      <c r="J108">
-        <v>204</v>
-      </c>
       <c r="K108">
         <v>755</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6297,14 +6293,14 @@
       <c r="I109" t="s">
         <v>322</v>
       </c>
-      <c r="J109">
-        <v>181</v>
-      </c>
       <c r="K109">
         <v>751</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6323,14 +6319,14 @@
       <c r="I110" t="s">
         <v>325</v>
       </c>
-      <c r="J110">
-        <v>277</v>
-      </c>
       <c r="K110">
         <v>1087</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6349,14 +6345,14 @@
       <c r="I111" t="s">
         <v>325</v>
       </c>
-      <c r="J111">
-        <v>236</v>
-      </c>
       <c r="K111">
         <v>998</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6372,14 +6368,14 @@
       <c r="I112" t="s">
         <v>329</v>
       </c>
-      <c r="J112">
-        <v>79</v>
-      </c>
       <c r="K112">
         <v>373</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6398,14 +6394,14 @@
       <c r="I113" t="s">
         <v>332</v>
       </c>
-      <c r="J113">
-        <v>85</v>
-      </c>
       <c r="K113">
         <v>364</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6424,14 +6420,14 @@
       <c r="I114" t="s">
         <v>332</v>
       </c>
-      <c r="J114">
-        <v>197</v>
-      </c>
       <c r="K114">
         <v>774</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6453,14 +6449,14 @@
       <c r="I115" t="s">
         <v>338</v>
       </c>
-      <c r="J115">
-        <v>136</v>
-      </c>
       <c r="K115">
         <v>646</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6476,14 +6472,14 @@
       <c r="I116" t="s">
         <v>340</v>
       </c>
-      <c r="J116">
-        <v>405</v>
-      </c>
       <c r="K116">
         <v>1693</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6499,14 +6495,14 @@
       <c r="I117" t="s">
         <v>342</v>
       </c>
-      <c r="J117">
-        <v>228</v>
-      </c>
       <c r="K117">
         <v>988</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6525,14 +6521,14 @@
       <c r="I118" t="s">
         <v>345</v>
       </c>
-      <c r="J118">
-        <v>68</v>
-      </c>
       <c r="K118">
         <v>270</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6551,14 +6547,14 @@
       <c r="I119" t="s">
         <v>347</v>
       </c>
-      <c r="J119">
-        <v>94</v>
-      </c>
       <c r="K119">
         <v>354</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6577,14 +6573,14 @@
       <c r="I120" t="s">
         <v>347</v>
       </c>
-      <c r="J120">
-        <v>75</v>
-      </c>
       <c r="K120">
         <v>304</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6606,14 +6602,14 @@
       <c r="I121" t="s">
         <v>353</v>
       </c>
-      <c r="J121">
-        <v>97</v>
-      </c>
       <c r="K121">
         <v>391</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6632,14 +6628,14 @@
       <c r="I122" t="s">
         <v>356</v>
       </c>
-      <c r="J122">
-        <v>174</v>
-      </c>
       <c r="K122">
         <v>726</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6658,14 +6654,14 @@
       <c r="I123" t="s">
         <v>358</v>
       </c>
-      <c r="J123">
-        <v>288</v>
-      </c>
       <c r="K123">
         <v>1212</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6684,14 +6680,14 @@
       <c r="I124" t="s">
         <v>361</v>
       </c>
-      <c r="J124">
-        <v>309</v>
-      </c>
       <c r="K124">
         <v>1324</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6710,14 +6706,14 @@
       <c r="I125" t="s">
         <v>363</v>
       </c>
-      <c r="J125">
-        <v>185</v>
-      </c>
       <c r="K125">
         <v>836</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6736,14 +6732,14 @@
       <c r="I126" t="s">
         <v>366</v>
       </c>
-      <c r="J126">
-        <v>163</v>
-      </c>
       <c r="K126">
         <v>699</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6759,14 +6755,14 @@
       <c r="I127" t="s">
         <v>368</v>
       </c>
-      <c r="J127">
-        <v>183</v>
-      </c>
       <c r="K127">
         <v>776</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6785,14 +6781,14 @@
       <c r="I128" t="s">
         <v>371</v>
       </c>
-      <c r="J128">
-        <v>281</v>
-      </c>
       <c r="K128">
         <v>1084</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6811,14 +6807,14 @@
       <c r="I129" t="s">
         <v>374</v>
       </c>
-      <c r="J129">
-        <v>24</v>
-      </c>
       <c r="K129">
         <v>116</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6840,14 +6836,14 @@
       <c r="I130" t="s">
         <v>378</v>
       </c>
-      <c r="J130">
-        <v>110</v>
-      </c>
       <c r="K130">
         <v>481</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6866,14 +6862,14 @@
       <c r="I131" t="s">
         <v>381</v>
       </c>
-      <c r="J131">
-        <v>238</v>
-      </c>
       <c r="K131">
         <v>981</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6892,14 +6888,14 @@
       <c r="I132" t="s">
         <v>384</v>
       </c>
-      <c r="J132">
-        <v>181</v>
-      </c>
       <c r="K132">
         <v>781</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6918,14 +6914,14 @@
       <c r="I133" t="s">
         <v>387</v>
       </c>
-      <c r="J133">
-        <v>130</v>
-      </c>
       <c r="K133">
         <v>568</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6944,14 +6940,14 @@
       <c r="I134" t="s">
         <v>390</v>
       </c>
-      <c r="J134">
-        <v>165</v>
-      </c>
       <c r="K134">
         <v>691</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6970,14 +6966,14 @@
       <c r="I135" t="s">
         <v>393</v>
       </c>
-      <c r="J135">
-        <v>299</v>
-      </c>
       <c r="K135">
         <v>1259</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6996,14 +6992,14 @@
       <c r="I136" t="s">
         <v>237</v>
       </c>
-      <c r="J136">
-        <v>125</v>
-      </c>
       <c r="K136">
         <v>590</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7022,14 +7018,14 @@
       <c r="I137" t="s">
         <v>397</v>
       </c>
-      <c r="J137">
-        <v>149</v>
-      </c>
       <c r="K137">
         <v>607</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7048,14 +7044,14 @@
       <c r="I138" t="s">
         <v>399</v>
       </c>
-      <c r="J138">
-        <v>149</v>
-      </c>
       <c r="K138">
         <v>618</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7074,14 +7070,14 @@
       <c r="I139" t="s">
         <v>401</v>
       </c>
-      <c r="J139">
-        <v>126</v>
-      </c>
       <c r="K139">
         <v>476</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7100,14 +7096,14 @@
       <c r="I140" t="s">
         <v>404</v>
       </c>
-      <c r="J140">
-        <v>133</v>
-      </c>
       <c r="K140">
         <v>559</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7129,14 +7125,14 @@
       <c r="I141" t="s">
         <v>407</v>
       </c>
-      <c r="J141">
-        <v>80</v>
-      </c>
       <c r="K141">
         <v>388</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7161,14 +7157,14 @@
       <c r="I142" t="s">
         <v>413</v>
       </c>
-      <c r="J142">
-        <v>80</v>
-      </c>
       <c r="K142">
         <v>336</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7193,14 +7189,14 @@
       <c r="I143" t="s">
         <v>413</v>
       </c>
-      <c r="J143">
-        <v>200</v>
-      </c>
       <c r="K143">
         <v>929</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7228,14 +7224,14 @@
       <c r="I144" t="s">
         <v>418</v>
       </c>
-      <c r="J144">
-        <v>470</v>
-      </c>
       <c r="K144">
         <v>1840</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7263,14 +7259,14 @@
       <c r="I145" t="s">
         <v>418</v>
       </c>
-      <c r="J145">
-        <v>440</v>
-      </c>
       <c r="K145">
         <v>2039</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7298,14 +7294,14 @@
       <c r="I146" t="s">
         <v>418</v>
       </c>
-      <c r="J146">
-        <v>167</v>
-      </c>
       <c r="K146">
         <v>785</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7330,14 +7326,14 @@
       <c r="I147" t="s">
         <v>418</v>
       </c>
-      <c r="J147">
-        <v>152</v>
-      </c>
       <c r="K147">
         <v>683</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7362,14 +7358,14 @@
       <c r="I148" t="s">
         <v>424</v>
       </c>
-      <c r="J148">
-        <v>232</v>
-      </c>
       <c r="K148">
         <v>966</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7394,14 +7390,14 @@
       <c r="I149" t="s">
         <v>424</v>
       </c>
-      <c r="J149">
-        <v>428</v>
-      </c>
       <c r="K149">
         <v>1868</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7426,14 +7422,14 @@
       <c r="I150" t="s">
         <v>424</v>
       </c>
-      <c r="J150">
-        <v>237</v>
-      </c>
       <c r="K150">
         <v>979</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7458,14 +7454,14 @@
       <c r="I151" t="s">
         <v>429</v>
       </c>
-      <c r="J151">
-        <v>212</v>
-      </c>
       <c r="K151">
         <v>929</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7490,14 +7486,14 @@
       <c r="I152" t="s">
         <v>434</v>
       </c>
-      <c r="J152">
-        <v>41</v>
-      </c>
       <c r="K152">
         <v>165</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7522,14 +7518,14 @@
       <c r="I153" t="s">
         <v>436</v>
       </c>
-      <c r="J153">
-        <v>46</v>
-      </c>
       <c r="K153">
         <v>173</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7554,14 +7550,14 @@
       <c r="I154" t="s">
         <v>436</v>
       </c>
-      <c r="J154">
-        <v>33</v>
-      </c>
       <c r="K154">
         <v>130</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7586,14 +7582,14 @@
       <c r="I155" t="s">
         <v>436</v>
       </c>
-      <c r="J155">
-        <v>107</v>
-      </c>
       <c r="K155">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7618,14 +7614,14 @@
       <c r="I156" t="s">
         <v>442</v>
       </c>
-      <c r="J156">
-        <v>384</v>
-      </c>
       <c r="K156">
         <v>1565</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7650,14 +7646,14 @@
       <c r="I157" t="s">
         <v>447</v>
       </c>
-      <c r="J157">
-        <v>83</v>
-      </c>
       <c r="K157">
         <v>345</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7682,14 +7678,14 @@
       <c r="I158" t="s">
         <v>447</v>
       </c>
-      <c r="J158">
-        <v>76</v>
-      </c>
       <c r="K158">
         <v>343</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7714,14 +7710,14 @@
       <c r="I159" t="s">
         <v>447</v>
       </c>
-      <c r="J159">
-        <v>102</v>
-      </c>
       <c r="K159">
         <v>423</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7746,14 +7742,14 @@
       <c r="I160" t="s">
         <v>452</v>
       </c>
-      <c r="J160">
-        <v>42</v>
-      </c>
       <c r="K160">
         <v>153</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7778,14 +7774,14 @@
       <c r="I161" t="s">
         <v>452</v>
       </c>
-      <c r="J161">
-        <v>169</v>
-      </c>
       <c r="K161">
         <v>708</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L161">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7810,14 +7806,14 @@
       <c r="I162" t="s">
         <v>452</v>
       </c>
-      <c r="J162">
-        <v>16</v>
-      </c>
       <c r="K162">
         <v>77</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7842,14 +7838,14 @@
       <c r="I163" t="s">
         <v>452</v>
       </c>
-      <c r="J163">
-        <v>102</v>
-      </c>
       <c r="K163">
         <v>470</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7874,14 +7870,14 @@
       <c r="I164" t="s">
         <v>452</v>
       </c>
-      <c r="J164">
-        <v>98</v>
-      </c>
       <c r="K164">
         <v>378</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7906,14 +7902,14 @@
       <c r="I165" t="s">
         <v>452</v>
       </c>
-      <c r="J165">
-        <v>40</v>
-      </c>
       <c r="K165">
         <v>145</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7938,14 +7934,14 @@
       <c r="I166" t="s">
         <v>452</v>
       </c>
-      <c r="J166">
-        <v>102</v>
-      </c>
       <c r="K166">
         <v>470</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7970,14 +7966,14 @@
       <c r="I167" t="s">
         <v>452</v>
       </c>
-      <c r="J167">
-        <v>98</v>
-      </c>
       <c r="K167">
         <v>378</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8002,14 +7998,14 @@
       <c r="I168" t="s">
         <v>452</v>
       </c>
-      <c r="J168">
-        <v>40</v>
-      </c>
       <c r="K168">
         <v>145</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8034,14 +8030,14 @@
       <c r="I169" t="s">
         <v>452</v>
       </c>
-      <c r="J169">
-        <v>93</v>
-      </c>
       <c r="K169">
         <v>360</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8066,14 +8062,14 @@
       <c r="I170" t="s">
         <v>452</v>
       </c>
-      <c r="J170">
-        <v>40</v>
-      </c>
       <c r="K170">
         <v>155</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8098,14 +8094,14 @@
       <c r="I171" t="s">
         <v>452</v>
       </c>
-      <c r="J171">
-        <v>45</v>
-      </c>
       <c r="K171">
         <v>190</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8130,14 +8126,14 @@
       <c r="I172" t="s">
         <v>471</v>
       </c>
-      <c r="J172">
-        <v>36</v>
-      </c>
       <c r="K172">
         <v>151</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8162,14 +8158,14 @@
       <c r="I173" t="s">
         <v>474</v>
       </c>
-      <c r="J173">
-        <v>46</v>
-      </c>
       <c r="K173">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L173">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8194,14 +8190,14 @@
       <c r="I174" t="s">
         <v>477</v>
       </c>
-      <c r="J174">
-        <v>130</v>
-      </c>
       <c r="K174">
         <v>518</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8226,14 +8222,14 @@
       <c r="I175" t="s">
         <v>480</v>
       </c>
-      <c r="J175">
-        <v>193</v>
-      </c>
       <c r="K175">
         <v>792</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8258,14 +8254,14 @@
       <c r="I176" t="s">
         <v>483</v>
       </c>
-      <c r="J176">
-        <v>52</v>
-      </c>
       <c r="K176">
         <v>226</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8281,14 +8277,14 @@
       <c r="I177" t="s">
         <v>485</v>
       </c>
-      <c r="J177">
-        <v>89</v>
-      </c>
       <c r="K177">
         <v>390</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L177">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8310,14 +8306,14 @@
       <c r="I178" t="s">
         <v>489</v>
       </c>
-      <c r="J178">
-        <v>355</v>
-      </c>
       <c r="K178">
         <v>1444</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8339,14 +8335,14 @@
       <c r="I179" t="s">
         <v>492</v>
       </c>
-      <c r="J179">
-        <v>105</v>
-      </c>
       <c r="K179">
         <v>427</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8368,14 +8364,14 @@
       <c r="I180" t="s">
         <v>495</v>
       </c>
-      <c r="J180">
-        <v>309</v>
-      </c>
       <c r="K180">
         <v>1229</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8394,14 +8390,14 @@
       <c r="I181" t="s">
         <v>498</v>
       </c>
-      <c r="J181">
-        <v>67</v>
-      </c>
       <c r="K181">
         <v>284</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8423,14 +8419,14 @@
       <c r="I182" t="s">
         <v>501</v>
       </c>
-      <c r="J182">
-        <v>402</v>
-      </c>
       <c r="K182">
         <v>1781</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8452,14 +8448,14 @@
       <c r="I183" t="s">
         <v>502</v>
       </c>
-      <c r="J183">
-        <v>145</v>
-      </c>
       <c r="K183">
         <v>737</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8481,14 +8477,14 @@
       <c r="I184" t="s">
         <v>505</v>
       </c>
-      <c r="J184">
-        <v>177</v>
-      </c>
       <c r="K184">
         <v>728</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8510,14 +8506,14 @@
       <c r="I185" t="s">
         <v>507</v>
       </c>
-      <c r="J185">
-        <v>136</v>
-      </c>
       <c r="K185">
         <v>622</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8539,14 +8535,14 @@
       <c r="I186" t="s">
         <v>152</v>
       </c>
-      <c r="J186">
-        <v>260</v>
-      </c>
       <c r="K186">
         <v>1128</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8568,14 +8564,14 @@
       <c r="I187" t="s">
         <v>511</v>
       </c>
-      <c r="J187">
-        <v>275</v>
-      </c>
       <c r="K187">
         <v>1194</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8597,14 +8593,14 @@
       <c r="I188" t="s">
         <v>516</v>
       </c>
-      <c r="J188">
-        <v>58</v>
-      </c>
       <c r="K188">
         <v>211</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8626,14 +8622,14 @@
       <c r="I189" t="s">
         <v>519</v>
       </c>
-      <c r="J189">
-        <v>221</v>
-      </c>
       <c r="K189">
         <v>941</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8655,14 +8651,14 @@
       <c r="I190" t="s">
         <v>522</v>
       </c>
-      <c r="J190">
-        <v>121</v>
-      </c>
       <c r="K190">
         <v>432</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8684,14 +8680,14 @@
       <c r="I191" t="s">
         <v>526</v>
       </c>
-      <c r="J191">
-        <v>146</v>
-      </c>
       <c r="K191">
         <v>672</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8713,14 +8709,14 @@
       <c r="I192" t="s">
         <v>529</v>
       </c>
-      <c r="J192">
-        <v>283</v>
-      </c>
       <c r="K192">
         <v>1195</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8742,14 +8738,14 @@
       <c r="I193" t="s">
         <v>532</v>
       </c>
-      <c r="J193">
-        <v>33</v>
-      </c>
       <c r="K193">
         <v>124</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8771,14 +8767,14 @@
       <c r="I194" t="s">
         <v>535</v>
       </c>
-      <c r="J194">
-        <v>112</v>
-      </c>
       <c r="K194">
         <v>444</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8800,14 +8796,14 @@
       <c r="I195" t="s">
         <v>537</v>
       </c>
-      <c r="J195">
-        <v>121</v>
-      </c>
       <c r="K195">
         <v>452</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8829,14 +8825,14 @@
       <c r="I196" t="s">
         <v>541</v>
       </c>
-      <c r="J196">
-        <v>242</v>
-      </c>
       <c r="K196">
         <v>1090</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8861,14 +8857,14 @@
       <c r="I197" t="s">
         <v>545</v>
       </c>
-      <c r="J197">
-        <v>150</v>
-      </c>
       <c r="K197">
         <v>609</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8893,14 +8889,14 @@
       <c r="I198" t="s">
         <v>103</v>
       </c>
-      <c r="J198">
-        <v>138</v>
-      </c>
       <c r="K198">
         <v>575</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8925,14 +8921,14 @@
       <c r="I199" t="s">
         <v>86</v>
       </c>
-      <c r="J199">
-        <v>57</v>
-      </c>
       <c r="K199">
         <v>233</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8957,14 +8953,14 @@
       <c r="I200" t="s">
         <v>548</v>
       </c>
-      <c r="J200">
-        <v>35</v>
-      </c>
       <c r="K200">
         <v>146</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8983,14 +8979,14 @@
       <c r="I201" t="s">
         <v>551</v>
       </c>
-      <c r="J201">
-        <v>91</v>
-      </c>
       <c r="K201">
         <v>349</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9009,14 +9005,14 @@
       <c r="I202" t="s">
         <v>554</v>
       </c>
-      <c r="J202">
-        <v>18</v>
-      </c>
       <c r="K202">
         <v>80</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9035,14 +9031,14 @@
       <c r="I203" t="s">
         <v>557</v>
       </c>
-      <c r="J203">
-        <v>37</v>
-      </c>
       <c r="K203">
         <v>165</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9061,14 +9057,14 @@
       <c r="I204" t="s">
         <v>560</v>
       </c>
-      <c r="J204">
-        <v>314</v>
-      </c>
       <c r="K204">
         <v>1372</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9087,14 +9083,14 @@
       <c r="I205" t="s">
         <v>563</v>
       </c>
-      <c r="J205">
-        <v>118</v>
-      </c>
       <c r="K205">
         <v>509</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9113,14 +9109,14 @@
       <c r="I206" t="s">
         <v>566</v>
       </c>
-      <c r="J206">
-        <v>186</v>
-      </c>
       <c r="K206">
         <v>859</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9139,14 +9135,14 @@
       <c r="I207" t="s">
         <v>569</v>
       </c>
-      <c r="J207">
-        <v>40</v>
-      </c>
       <c r="K207">
         <v>190</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9165,14 +9161,14 @@
       <c r="I208" t="s">
         <v>572</v>
       </c>
-      <c r="J208">
-        <v>341</v>
-      </c>
       <c r="K208">
         <v>1511</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9188,14 +9184,14 @@
       <c r="I209" t="s">
         <v>575</v>
       </c>
-      <c r="J209">
-        <v>87</v>
-      </c>
       <c r="K209">
         <v>360</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9214,14 +9210,14 @@
       <c r="I210" t="s">
         <v>578</v>
       </c>
-      <c r="J210">
-        <v>174</v>
-      </c>
       <c r="K210">
         <v>716</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9240,14 +9236,14 @@
       <c r="I211" t="s">
         <v>581</v>
       </c>
-      <c r="J211">
-        <v>53</v>
-      </c>
       <c r="K211">
         <v>197</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9266,14 +9262,14 @@
       <c r="I212" t="s">
         <v>584</v>
       </c>
-      <c r="J212">
-        <v>295</v>
-      </c>
       <c r="K212">
         <v>1284</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9292,14 +9288,14 @@
       <c r="I213" t="s">
         <v>587</v>
       </c>
-      <c r="J213">
-        <v>207</v>
-      </c>
       <c r="K213">
         <v>1008</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9318,14 +9314,14 @@
       <c r="I214" t="s">
         <v>590</v>
       </c>
-      <c r="J214">
-        <v>46</v>
-      </c>
       <c r="K214">
         <v>187</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9344,14 +9340,14 @@
       <c r="I215" t="s">
         <v>593</v>
       </c>
-      <c r="J215">
-        <v>298</v>
-      </c>
       <c r="K215">
         <v>1202</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9367,14 +9363,14 @@
       <c r="I216" t="s">
         <v>595</v>
       </c>
-      <c r="J216">
-        <v>88</v>
-      </c>
       <c r="K216">
         <v>383</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9393,14 +9389,14 @@
       <c r="I217" t="s">
         <v>598</v>
       </c>
-      <c r="J217">
-        <v>283</v>
-      </c>
       <c r="K217">
         <v>1173</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9416,14 +9412,14 @@
       <c r="I218" t="s">
         <v>601</v>
       </c>
-      <c r="J218">
-        <v>307</v>
-      </c>
       <c r="K218">
         <v>1244</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9439,14 +9435,14 @@
       <c r="I219" t="s">
         <v>605</v>
       </c>
-      <c r="J219">
-        <v>123</v>
-      </c>
       <c r="K219">
         <v>504</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9459,14 +9455,14 @@
       <c r="F220" t="s">
         <v>607</v>
       </c>
-      <c r="J220">
-        <v>288</v>
-      </c>
       <c r="K220">
         <v>1212</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9485,14 +9481,14 @@
       <c r="I221" t="s">
         <v>610</v>
       </c>
-      <c r="J221">
-        <v>168</v>
-      </c>
       <c r="K221">
         <v>816</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9505,14 +9501,14 @@
       <c r="I222" t="s">
         <v>612</v>
       </c>
-      <c r="J222">
-        <v>212</v>
-      </c>
       <c r="K222">
         <v>1005</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9531,14 +9527,14 @@
       <c r="I223" t="s">
         <v>615</v>
       </c>
-      <c r="J223">
-        <v>151</v>
-      </c>
       <c r="K223">
         <v>549</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9554,14 +9550,14 @@
       <c r="I224" t="s">
         <v>617</v>
       </c>
-      <c r="J224">
-        <v>71</v>
-      </c>
       <c r="K224">
         <v>307</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9580,14 +9576,14 @@
       <c r="I225" t="s">
         <v>620</v>
       </c>
-      <c r="J225">
-        <v>122</v>
-      </c>
       <c r="K225">
         <v>518</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9606,14 +9602,14 @@
       <c r="I226" t="s">
         <v>622</v>
       </c>
-      <c r="J226">
-        <v>114</v>
-      </c>
       <c r="K226">
         <v>537</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9632,14 +9628,14 @@
       <c r="I227" t="s">
         <v>625</v>
       </c>
-      <c r="J227">
-        <v>102</v>
-      </c>
       <c r="K227">
         <v>473</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9658,14 +9654,14 @@
       <c r="I228" t="s">
         <v>627</v>
       </c>
-      <c r="J228">
-        <v>41</v>
-      </c>
       <c r="K228">
         <v>164</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9684,14 +9680,14 @@
       <c r="I229" t="s">
         <v>629</v>
       </c>
-      <c r="J229">
-        <v>84</v>
-      </c>
       <c r="K229">
         <v>360</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9710,14 +9706,14 @@
       <c r="I230" t="s">
         <v>631</v>
       </c>
-      <c r="J230">
-        <v>170</v>
-      </c>
       <c r="K230">
         <v>653</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9736,14 +9732,14 @@
       <c r="I231" t="s">
         <v>635</v>
       </c>
-      <c r="J231">
-        <v>139</v>
-      </c>
       <c r="K231">
         <v>574</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9762,14 +9758,14 @@
       <c r="I232" t="s">
         <v>638</v>
       </c>
-      <c r="J232">
-        <v>129</v>
-      </c>
       <c r="K232">
         <v>520</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L232">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9788,14 +9784,14 @@
       <c r="I233" t="s">
         <v>640</v>
       </c>
-      <c r="J233">
-        <v>327</v>
-      </c>
       <c r="K233">
         <v>1389</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9808,14 +9804,14 @@
       <c r="F234" t="s">
         <v>641</v>
       </c>
-      <c r="J234">
-        <v>81</v>
-      </c>
       <c r="K234">
         <v>371</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L234">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9834,14 +9830,14 @@
       <c r="I235" t="s">
         <v>643</v>
       </c>
-      <c r="J235">
-        <v>282</v>
-      </c>
       <c r="K235">
         <v>1167</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9860,14 +9856,14 @@
       <c r="I236" t="s">
         <v>646</v>
       </c>
-      <c r="J236">
-        <v>90</v>
-      </c>
       <c r="K236">
         <v>396</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L236">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9886,14 +9882,14 @@
       <c r="I237" t="s">
         <v>648</v>
       </c>
-      <c r="J237">
-        <v>282</v>
-      </c>
       <c r="K237">
         <v>1217</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9912,14 +9908,14 @@
       <c r="I238" t="s">
         <v>650</v>
       </c>
-      <c r="J238">
-        <v>96</v>
-      </c>
       <c r="K238">
         <v>441</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L238">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9938,14 +9934,14 @@
       <c r="I239" t="s">
         <v>652</v>
       </c>
-      <c r="J239">
-        <v>280</v>
-      </c>
       <c r="K239">
         <v>1250</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9964,14 +9960,14 @@
       <c r="I240" t="s">
         <v>655</v>
       </c>
-      <c r="J240">
-        <v>185</v>
-      </c>
       <c r="K240">
         <v>803</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L240">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9990,14 +9986,14 @@
       <c r="I241" t="s">
         <v>657</v>
       </c>
-      <c r="J241">
-        <v>153</v>
-      </c>
       <c r="K241">
         <v>663</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10016,14 +10012,14 @@
       <c r="I242" t="s">
         <v>659</v>
       </c>
-      <c r="J242">
-        <v>77</v>
-      </c>
       <c r="K242">
         <v>336</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L242">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10042,14 +10038,14 @@
       <c r="I243" t="s">
         <v>661</v>
       </c>
-      <c r="J243">
-        <v>59</v>
-      </c>
       <c r="K243">
         <v>251</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L243">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10068,14 +10064,14 @@
       <c r="I244" t="s">
         <v>663</v>
       </c>
-      <c r="J244">
-        <v>187</v>
-      </c>
       <c r="K244">
         <v>817</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L244">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10097,14 +10093,14 @@
       <c r="I245" t="s">
         <v>665</v>
       </c>
-      <c r="J245">
-        <v>169</v>
-      </c>
       <c r="K245">
         <v>725</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10123,14 +10119,14 @@
       <c r="I246" t="s">
         <v>668</v>
       </c>
-      <c r="J246">
-        <v>22</v>
-      </c>
       <c r="K246">
         <v>98</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10149,14 +10145,14 @@
       <c r="I247" t="s">
         <v>668</v>
       </c>
-      <c r="J247">
-        <v>27</v>
-      </c>
       <c r="K247">
         <v>112</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10175,14 +10171,14 @@
       <c r="I248" t="s">
         <v>671</v>
       </c>
-      <c r="J248">
-        <v>123</v>
-      </c>
       <c r="K248">
         <v>561</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10201,14 +10197,14 @@
       <c r="I249" t="s">
         <v>673</v>
       </c>
-      <c r="J249">
-        <v>156</v>
-      </c>
       <c r="K249">
         <v>716</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10227,14 +10223,14 @@
       <c r="I250" t="s">
         <v>676</v>
       </c>
-      <c r="J250">
-        <v>258</v>
-      </c>
       <c r="K250">
         <v>1095</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L250">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10253,19 +10249,19 @@
       <c r="G251" t="s">
         <v>680</v>
       </c>
-      <c r="J251">
-        <v>518</v>
-      </c>
       <c r="K251">
         <v>2123</v>
       </c>
+      <c r="L251">
+        <v>518</v>
+      </c>
     </row>
     <row r="272" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="273" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="2"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="2"/>
+      <c r="A274" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
